--- a/librote1.xlsx
+++ b/librote1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CRISTHIAN\universidad\ciclo 3\Física 3\LAB_FIS_CAPACITOR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D1D20B7-43E7-4626-9F1C-3A27480C558F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B71A71-7BD9-442D-AEC3-8C6C7AB7219E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{ACB2C423-C23E-47B9-AD96-1A12998E770F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{ACB2C423-C23E-47B9-AD96-1A12998E770F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -278,7 +280,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -449,6 +451,50 @@
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-PE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -1607,12 +1653,12 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1635,7 +1681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1649,18 +1695,18 @@
         <v>2.9100000000000003E-4</v>
       </c>
       <c r="E2">
-        <f>SQRT(B2*B2+C2*C2)</f>
+        <f t="shared" ref="E2:E9" si="0">SQRT(B2*B2+C2*C2)</f>
         <v>1.7183259295023164E-3</v>
       </c>
       <c r="F2">
-        <f>1/E2</f>
+        <f t="shared" ref="F2:F9" si="1">1/E2</f>
         <v>581.96177036659913</v>
       </c>
       <c r="G2" s="4">
         <v>2.9100000000000003E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1674,18 +1720,18 @@
         <v>2.9E-4</v>
       </c>
       <c r="E3">
-        <f>SQRT(B3*B3+C3*C3)</f>
+        <f t="shared" si="0"/>
         <v>1.7225576913415701E-3</v>
       </c>
       <c r="F3">
-        <f>1/E3</f>
+        <f t="shared" si="1"/>
         <v>580.53208030505812</v>
       </c>
       <c r="G3" s="4">
         <v>2.9E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1699,18 +1745,18 @@
         <v>2.92E-4</v>
       </c>
       <c r="E4">
-        <f>SQRT(B4*B4+C4*C4)</f>
+        <f t="shared" si="0"/>
         <v>1.7120309576640254E-3</v>
       </c>
       <c r="F4">
-        <f>1/E4</f>
+        <f t="shared" si="1"/>
         <v>584.10158737108736</v>
       </c>
       <c r="G4" s="4">
         <v>2.92E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1724,18 +1770,18 @@
         <v>2.9E-4</v>
       </c>
       <c r="E5">
-        <f>SQRT(B5*B5+C5*C5)</f>
+        <f t="shared" si="0"/>
         <v>1.7228934964181623E-3</v>
       </c>
       <c r="F5">
-        <f>1/E5</f>
+        <f t="shared" si="1"/>
         <v>580.41893017703444</v>
       </c>
       <c r="G5" s="4">
         <v>2.9E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1749,18 +1795,18 @@
         <v>2.8899999999999998E-4</v>
       </c>
       <c r="E6">
-        <f>SQRT(B6*B6+C6*C6)</f>
+        <f t="shared" si="0"/>
         <v>1.7275557878112071E-3</v>
       </c>
       <c r="F6">
-        <f>1/E6</f>
+        <f t="shared" si="1"/>
         <v>578.85250771958476</v>
       </c>
       <c r="G6" s="4">
         <v>2.8899999999999998E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1774,18 +1820,18 @@
         <v>2.8899999999999998E-4</v>
       </c>
       <c r="E7">
-        <f>SQRT(B7*B7+C7*C7)</f>
+        <f t="shared" si="0"/>
         <v>1.7252831651644897E-3</v>
       </c>
       <c r="F7">
-        <f>1/E7</f>
+        <f t="shared" si="1"/>
         <v>579.61499897013096</v>
       </c>
       <c r="G7" s="4">
         <v>2.8899999999999998E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1799,18 +1845,18 @@
         <v>2.9E-4</v>
       </c>
       <c r="E8">
-        <f>SQRT(B8*B8+C8*C8)</f>
+        <f t="shared" si="0"/>
         <v>1.7207167111410293E-3</v>
       </c>
       <c r="F8">
-        <f>1/E8</f>
+        <f t="shared" si="1"/>
         <v>581.15318664911854</v>
       </c>
       <c r="G8" s="4">
         <v>2.9E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1824,19 +1870,19 @@
         <v>2.8899999999999998E-4</v>
       </c>
       <c r="E9">
-        <f>SQRT(B9*B9+C9*C9)</f>
+        <f t="shared" si="0"/>
         <v>1.7266128691747898E-3</v>
       </c>
       <c r="F9">
-        <f>1/E9</f>
+        <f t="shared" si="1"/>
         <v>579.16862421970472</v>
       </c>
       <c r="G9" s="4">
         <v>2.8899999999999998E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="6" t="s">
         <v>0</v>
       </c>
@@ -1856,7 +1902,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="9">
         <v>1</v>
       </c>
@@ -1866,7 +1912,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="11">
         <v>2</v>
       </c>
@@ -1876,7 +1922,7 @@
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="9">
         <v>3</v>
       </c>
@@ -1886,7 +1932,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="11">
         <v>4</v>
       </c>
@@ -1896,7 +1942,7 @@
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
     </row>
-    <row r="17" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="9">
         <v>5</v>
       </c>
@@ -1906,7 +1952,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
     </row>
-    <row r="18" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="11">
         <v>6</v>
       </c>
@@ -1916,7 +1962,7 @@
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
     </row>
-    <row r="19" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="9">
         <v>7</v>
       </c>
@@ -1926,7 +1972,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
     </row>
-    <row r="20" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="11">
         <v>8</v>
       </c>
@@ -1936,7 +1982,7 @@
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="9">
         <v>9</v>
       </c>
@@ -1946,7 +1992,7 @@
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
     </row>
-    <row r="22" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="13" t="s">
         <v>11</v>
       </c>
